--- a/TI/Backlog.xlsx
+++ b/TI/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giibu\Documents\Faculdade Bandtec\Pesquisa e Inovação\ProjetoIndividual\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54CF38D9-654A-4EA8-85BD-9907557CF8D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC98BF-F3DD-4AD1-940B-28A091DBDB14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{38D3471D-821F-47B8-98CA-520962B87237}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Aplicação</t>
   </si>
@@ -39,9 +39,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Criar um site sobre desenhos e pinturas contendo: informações, ténicas e novidades sobre o assunto.</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
@@ -63,18 +60,12 @@
     <t>4.</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar página para ajudas ao cliente. </t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
     <t>5.</t>
   </si>
   <si>
-    <t>Criar tela de cadastro.</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>7.</t>
   </si>
   <si>
-    <t>Criar tela de login.</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -121,6 +109,24 @@
   </si>
   <si>
     <t>Emitir alertas caso o usuário fique muito tempo sem acessar o site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar página para falar sobre a escolha do site. </t>
+  </si>
+  <si>
+    <t>Criar um site sobre desenhos e pinturas contendo: informações, técnicas e novidades sobre o assunto.</t>
+  </si>
+  <si>
+    <t>Criar tela de login com e-mail e senha.</t>
+  </si>
+  <si>
+    <t>Criar tela de cadastro com nome, e-mail, senha e celular.</t>
+  </si>
+  <si>
+    <t>Criar página do usuário, contendo assuntos sobre desenho e pinturas.</t>
+  </si>
+  <si>
+    <t>14.</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,19 +217,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -250,11 +243,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -263,15 +313,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,6 +328,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,214 +672,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC6B0B9-7EAD-4ED3-A38A-E4A1808D0498}">
-  <dimension ref="C3:F16"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="93.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="93.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="E4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="G13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3</v>
-      </c>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="16"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>